--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H2">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I2">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J2">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>171.1983656185662</v>
+        <v>94.60064543339931</v>
       </c>
       <c r="R2">
-        <v>1540.785290567096</v>
+        <v>851.4058089005938</v>
       </c>
       <c r="S2">
-        <v>0.005955795748741204</v>
+        <v>0.0034315029088537</v>
       </c>
       <c r="T2">
-        <v>0.006206113971351171</v>
+        <v>0.003580788532182935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H3">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I3">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J3">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>8059.728466085282</v>
+        <v>6046.779747409034</v>
       </c>
       <c r="R3">
-        <v>72537.55619476755</v>
+        <v>54421.01772668131</v>
       </c>
       <c r="S3">
-        <v>0.2803887546524184</v>
+        <v>0.2193382740399993</v>
       </c>
       <c r="T3">
-        <v>0.2921733116898638</v>
+        <v>0.2288804635207472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H4">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I4">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J4">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>5089.935037755857</v>
+        <v>4460.872926728109</v>
       </c>
       <c r="R4">
-        <v>45809.41533980271</v>
+        <v>40147.85634055299</v>
       </c>
       <c r="S4">
-        <v>0.1770730307483009</v>
+        <v>0.1618117757438664</v>
       </c>
       <c r="T4">
-        <v>0.184515295090298</v>
+        <v>0.1688513069479949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H5">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I5">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J5">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>1798.384895928348</v>
+        <v>950.7016921003928</v>
       </c>
       <c r="R5">
-        <v>10790.30937557009</v>
+        <v>5704.210152602357</v>
       </c>
       <c r="S5">
-        <v>0.06256375800709675</v>
+        <v>0.03448534211314002</v>
       </c>
       <c r="T5">
-        <v>0.04346218138302699</v>
+        <v>0.02399040514648965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H6">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I6">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J6">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>6062.672115748494</v>
+        <v>5583.210984525674</v>
       </c>
       <c r="R6">
-        <v>54564.04904173645</v>
+        <v>50248.89886073106</v>
       </c>
       <c r="S6">
-        <v>0.2109134434930076</v>
+        <v>0.2025229811738647</v>
       </c>
       <c r="T6">
-        <v>0.2197779983782009</v>
+        <v>0.2113336307015187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.732741</v>
       </c>
       <c r="I7">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J7">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>0.9639634473093333</v>
+        <v>0.7099884963776665</v>
       </c>
       <c r="R7">
-        <v>8.675671025784</v>
+        <v>6.389896467398999</v>
       </c>
       <c r="S7">
-        <v>3.353518814670402E-05</v>
+        <v>2.575381573149888E-05</v>
       </c>
       <c r="T7">
-        <v>3.494465029851606E-05</v>
+        <v>2.687422114472565E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.732741</v>
       </c>
       <c r="I8">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J8">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>45.38176289518366</v>
@@ -948,10 +948,10 @@
         <v>408.435866056653</v>
       </c>
       <c r="S8">
-        <v>0.001578779736272227</v>
+        <v>0.001646158445011529</v>
       </c>
       <c r="T8">
-        <v>0.001645134821998567</v>
+        <v>0.00171777365155213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.732741</v>
       </c>
       <c r="I9">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J9">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>28.65980237514367</v>
+        <v>33.47935362670732</v>
       </c>
       <c r="R9">
-        <v>257.938221376293</v>
+        <v>301.314182640366</v>
       </c>
       <c r="S9">
-        <v>0.0009970418147913231</v>
+        <v>0.001214415597591972</v>
       </c>
       <c r="T9">
-        <v>0.001038946833948357</v>
+        <v>0.001267248071957504</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.732741</v>
       </c>
       <c r="I10">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J10">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>10.126132323778</v>
+        <v>7.135123251915499</v>
       </c>
       <c r="R10">
-        <v>60.756793942668</v>
+        <v>42.810739511493</v>
       </c>
       <c r="S10">
-        <v>0.0003522765864454459</v>
+        <v>0.0002588163757425424</v>
       </c>
       <c r="T10">
-        <v>0.0002447216948724344</v>
+        <v>0.0001800506920371777</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.732741</v>
       </c>
       <c r="I11">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J11">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>34.13697491495967</v>
+        <v>41.90262713010133</v>
       </c>
       <c r="R11">
-        <v>307.232774234637</v>
+        <v>377.1236441709119</v>
       </c>
       <c r="S11">
-        <v>0.00118758639627663</v>
+        <v>0.00151995777858392</v>
       </c>
       <c r="T11">
-        <v>0.001237499880293366</v>
+        <v>0.001586082695402311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H12">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I12">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J12">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>30.18666872684711</v>
+        <v>19.24295258823355</v>
       </c>
       <c r="R12">
-        <v>271.680018541624</v>
+        <v>173.186573294102</v>
       </c>
       <c r="S12">
-        <v>0.00105015975253281</v>
+        <v>0.0006980105418830916</v>
       </c>
       <c r="T12">
-        <v>0.001094297284073595</v>
+        <v>0.0007283771018433173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H13">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I13">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J13">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>1421.137125666992</v>
+        <v>1229.990508603888</v>
       </c>
       <c r="R13">
-        <v>12790.23413100293</v>
+        <v>11069.91457743499</v>
       </c>
       <c r="S13">
-        <v>0.04943973863794794</v>
+        <v>0.0446161438835864</v>
       </c>
       <c r="T13">
-        <v>0.05151765870509736</v>
+        <v>0.04655714438019766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H14">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I14">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J14">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>897.4862713832192</v>
+        <v>907.397257575763</v>
       </c>
       <c r="R14">
-        <v>8077.376442448974</v>
+        <v>8166.575318181867</v>
       </c>
       <c r="S14">
-        <v>0.03122252306758054</v>
+        <v>0.03291453577924298</v>
       </c>
       <c r="T14">
-        <v>0.03253478540990942</v>
+        <v>0.0343464643309335</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H15">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I15">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J15">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>317.1014448683913</v>
+        <v>193.3845958748857</v>
       </c>
       <c r="R15">
-        <v>1902.608669210348</v>
+        <v>1160.307575249314</v>
       </c>
       <c r="S15">
-        <v>0.01103159735458388</v>
+        <v>0.007014749214785797</v>
       </c>
       <c r="T15">
-        <v>0.007663498812124732</v>
+        <v>0.004879947982293868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H16">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I16">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J16">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>1069.004800929862</v>
+        <v>1135.694833509042</v>
       </c>
       <c r="R16">
-        <v>9621.043208368757</v>
+        <v>10221.25350158138</v>
       </c>
       <c r="S16">
-        <v>0.03718945695397188</v>
+        <v>0.04119570333692973</v>
       </c>
       <c r="T16">
-        <v>0.03875250564759367</v>
+        <v>0.04298789947211943</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H17">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I17">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J17">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>8.631286722482665</v>
+        <v>10.79099843784333</v>
       </c>
       <c r="R17">
-        <v>51.78772033489599</v>
+        <v>64.74599062706</v>
       </c>
       <c r="S17">
-        <v>0.0003002726140649192</v>
+        <v>0.0003914280115029923</v>
       </c>
       <c r="T17">
-        <v>0.0002085952511894319</v>
+        <v>0.0002723045794596745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H18">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I18">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J18">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>406.3463283938802</v>
+        <v>689.7499537063034</v>
       </c>
       <c r="R18">
-        <v>2438.077970363282</v>
+        <v>4138.499722237821</v>
       </c>
       <c r="S18">
-        <v>0.01413632499598122</v>
+        <v>0.02501969158541538</v>
       </c>
       <c r="T18">
-        <v>0.009820310362351661</v>
+        <v>0.01740543955762658</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H19">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I19">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J19">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>256.6186222102403</v>
+        <v>508.8471919320066</v>
       </c>
       <c r="R19">
-        <v>1539.711733261442</v>
+        <v>3053.083151592039</v>
       </c>
       <c r="S19">
-        <v>0.008927468984212225</v>
+        <v>0.01845770302387644</v>
       </c>
       <c r="T19">
-        <v>0.006201789800401166</v>
+        <v>0.01284046341090695</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H20">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I20">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J20">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>90.66894779079799</v>
+        <v>108.445565326855</v>
       </c>
       <c r="R20">
-        <v>362.6757911631919</v>
+        <v>433.78226130742</v>
       </c>
       <c r="S20">
-        <v>0.003154269211882651</v>
+        <v>0.003933707546777516</v>
       </c>
       <c r="T20">
-        <v>0.001460818264808526</v>
+        <v>0.001824373912552604</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H21">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I21">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J21">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>305.6609865774963</v>
+        <v>636.8711411655466</v>
       </c>
       <c r="R21">
-        <v>1833.965919464978</v>
+        <v>3821.22684699328</v>
       </c>
       <c r="S21">
-        <v>0.01063359686780134</v>
+        <v>0.02310158840314816</v>
       </c>
       <c r="T21">
-        <v>0.0073870133531612</v>
+        <v>0.01607107342884086</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H22">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I22">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J22">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>21.34374552203911</v>
+        <v>26.84683432087377</v>
       </c>
       <c r="R22">
-        <v>192.093709698352</v>
+        <v>241.6215088878639</v>
       </c>
       <c r="S22">
-        <v>0.000742524546791519</v>
+        <v>0.0009738304600728064</v>
       </c>
       <c r="T22">
-        <v>0.0007737323706723847</v>
+        <v>0.001016196411992553</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H23">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I23">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J23">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>1004.827310910981</v>
+        <v>1716.023112842223</v>
       </c>
       <c r="R23">
-        <v>9043.445798198833</v>
+        <v>15444.20801558001</v>
       </c>
       <c r="S23">
-        <v>0.03495679532289685</v>
+        <v>0.0622462804180751</v>
       </c>
       <c r="T23">
-        <v>0.03642600669993531</v>
+        <v>0.06495427018785292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H24">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I24">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J24">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>634.5754398825283</v>
+        <v>1265.956652216019</v>
       </c>
       <c r="R24">
-        <v>5711.178958942754</v>
+        <v>11393.60986994417</v>
       </c>
       <c r="S24">
-        <v>0.02207615530354147</v>
+        <v>0.0459207642258669</v>
       </c>
       <c r="T24">
-        <v>0.02300400175610191</v>
+        <v>0.0479185215040338</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H25">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I25">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J25">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>224.2093225054173</v>
+        <v>269.8008105490413</v>
       </c>
       <c r="R25">
-        <v>1345.255935032504</v>
+        <v>1618.804863294248</v>
       </c>
       <c r="S25">
-        <v>0.007799986436675969</v>
+        <v>0.009786637944895609</v>
       </c>
       <c r="T25">
-        <v>0.005418543196486171</v>
+        <v>0.006808266786212155</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H26">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I26">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J26">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>755.8491014476429</v>
+        <v>1584.466359540537</v>
       </c>
       <c r="R26">
-        <v>6802.641913028785</v>
+        <v>14260.19723586483</v>
       </c>
       <c r="S26">
-        <v>0.02629512757803763</v>
+        <v>0.05747424763155562</v>
       </c>
       <c r="T26">
-        <v>0.02740029469194141</v>
+        <v>0.05997463277210669</v>
       </c>
     </row>
   </sheetData>
